--- a/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>Add -  Edit and Delete Position Category From Excel</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1185,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1190,7 +1193,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="51.2857142857143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="51.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1204,6 +1207,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Add -  Edit and Delete Position Category From Excel</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>FAILED</t>
+  </si>
+  <si>
+    <t>Login with valid username and password</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1188,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1229,6 +1232,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
   <si>
     <t>Add -  Edit and Delete Position Category From Excel</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Login with valid username and password</t>
+  </si>
+  <si>
+    <t>Fill in the required information completely</t>
+  </si>
+  <si>
+    <t>Convert amount to dollars</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1194,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1243,6 +1249,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
   <si>
     <t>Add -  Edit and Delete Position Category From Excel</t>
   </si>
@@ -1194,7 +1194,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1315,6 +1315,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
   <si>
     <t>Add -  Edit and Delete Position Category From Excel</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Convert amount to dollars</t>
+  </si>
+  <si>
+    <t>AddNew Payee</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1197,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1337,6 +1340,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="8">
   <si>
     <t>Add -  Edit and Delete Position Category From Excel</t>
   </si>
@@ -1197,7 +1197,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1384,6 +1384,138 @@
         <v>2</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="8">
   <si>
     <t>Add -  Edit and Delete Position Category From Excel</t>
   </si>
@@ -1197,7 +1197,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1516,6 +1516,204 @@
         <v>2</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
   <si>
     <t>Add -  Edit and Delete Position Category From Excel</t>
   </si>
@@ -1197,7 +1197,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1714,6 +1714,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
+++ b/src/test/java/apachePOI/resource/_ScenarioResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="8">
   <si>
     <t>Add -  Edit and Delete Position Category From Excel</t>
   </si>
@@ -1197,7 +1197,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1736,6 +1736,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
